--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Trf-Tfrc.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Trf-Tfrc.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.861410355357213</v>
+        <v>0.9629840000000001</v>
       </c>
       <c r="H2">
-        <v>0.861410355357213</v>
+        <v>2.888952</v>
       </c>
       <c r="I2">
-        <v>0.01361118846992221</v>
+        <v>0.01399805369068137</v>
       </c>
       <c r="J2">
-        <v>0.01361118846992221</v>
+        <v>0.01399805369068137</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.78420430935101</v>
+        <v>7.078637666666666</v>
       </c>
       <c r="N2">
-        <v>6.78420430935101</v>
+        <v>21.235913</v>
       </c>
       <c r="O2">
-        <v>0.07376690342406136</v>
+        <v>0.07272632720268933</v>
       </c>
       <c r="P2">
-        <v>0.07376690342406136</v>
+        <v>0.07272632720268933</v>
       </c>
       <c r="Q2">
-        <v>5.843983844933989</v>
+        <v>6.816614814797333</v>
       </c>
       <c r="R2">
-        <v>5.843983844933989</v>
+        <v>61.34953333317601</v>
       </c>
       <c r="S2">
-        <v>0.001004055225347449</v>
+        <v>0.001018027032909306</v>
       </c>
       <c r="T2">
-        <v>0.001004055225347449</v>
+        <v>0.001018027032909306</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.861410355357213</v>
+        <v>0.9629840000000001</v>
       </c>
       <c r="H3">
-        <v>0.861410355357213</v>
+        <v>2.888952</v>
       </c>
       <c r="I3">
-        <v>0.01361118846992221</v>
+        <v>0.01399805369068137</v>
       </c>
       <c r="J3">
-        <v>0.01361118846992221</v>
+        <v>0.01399805369068137</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.08139142165525</v>
+        <v>7.166899</v>
       </c>
       <c r="N3">
-        <v>7.08139142165525</v>
+        <v>21.500697</v>
       </c>
       <c r="O3">
-        <v>0.07699831745768733</v>
+        <v>0.07363312917640419</v>
       </c>
       <c r="P3">
-        <v>0.07699831745768733</v>
+        <v>0.07363312917640417</v>
       </c>
       <c r="Q3">
-        <v>6.099983900951569</v>
+        <v>6.901609066616</v>
       </c>
       <c r="R3">
-        <v>6.099983900951569</v>
+        <v>62.114481599544</v>
       </c>
       <c r="S3">
-        <v>0.001048038610783484</v>
+        <v>0.001030720495624182</v>
       </c>
       <c r="T3">
-        <v>0.001048038610783484</v>
+        <v>0.001030720495624182</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.861410355357213</v>
+        <v>0.9629840000000001</v>
       </c>
       <c r="H4">
-        <v>0.861410355357213</v>
+        <v>2.888952</v>
       </c>
       <c r="I4">
-        <v>0.01361118846992221</v>
+        <v>0.01399805369068137</v>
       </c>
       <c r="J4">
-        <v>0.01361118846992221</v>
+        <v>0.01399805369068137</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.1871643049415</v>
+        <v>38.27985899999999</v>
       </c>
       <c r="N4">
-        <v>38.1871643049415</v>
+        <v>114.839577</v>
       </c>
       <c r="O4">
-        <v>0.4152217021882199</v>
+        <v>0.3932894551188091</v>
       </c>
       <c r="P4">
-        <v>0.4152217021882199</v>
+        <v>0.3932894551188091</v>
       </c>
       <c r="Q4">
-        <v>32.89481877400394</v>
+        <v>36.862891739256</v>
       </c>
       <c r="R4">
-        <v>32.89481877400394</v>
+        <v>331.766025653304</v>
       </c>
       <c r="S4">
-        <v>0.005651660845285773</v>
+        <v>0.005505286908731911</v>
       </c>
       <c r="T4">
-        <v>0.005651660845285773</v>
+        <v>0.005505286908731911</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.861410355357213</v>
+        <v>0.9629840000000001</v>
       </c>
       <c r="H5">
-        <v>0.861410355357213</v>
+        <v>2.888952</v>
       </c>
       <c r="I5">
-        <v>0.01361118846992221</v>
+        <v>0.01399805369068137</v>
       </c>
       <c r="J5">
-        <v>0.01361118846992221</v>
+        <v>0.01399805369068137</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.6400021899016</v>
+        <v>29.41469933333333</v>
       </c>
       <c r="N5">
-        <v>27.6400021899016</v>
+        <v>88.24409800000001</v>
       </c>
       <c r="O5">
-        <v>0.3005389105650863</v>
+        <v>0.3022082989723203</v>
       </c>
       <c r="P5">
-        <v>0.3005389105650863</v>
+        <v>0.3022082989723203</v>
       </c>
       <c r="Q5">
-        <v>23.80938410847728</v>
+        <v>28.32588482281067</v>
       </c>
       <c r="R5">
-        <v>23.80938410847728</v>
+        <v>254.9329634052961</v>
       </c>
       <c r="S5">
-        <v>0.004090691754246485</v>
+        <v>0.004230327994784027</v>
       </c>
       <c r="T5">
-        <v>0.004090691754246485</v>
+        <v>0.004230327994784027</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.861410355357213</v>
+        <v>0.9629840000000001</v>
       </c>
       <c r="H6">
-        <v>0.861410355357213</v>
+        <v>2.888952</v>
       </c>
       <c r="I6">
-        <v>0.01361118846992221</v>
+        <v>0.01399805369068137</v>
       </c>
       <c r="J6">
-        <v>0.01361118846992221</v>
+        <v>0.01399805369068137</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.2753697472508</v>
+        <v>15.39243833333333</v>
       </c>
       <c r="N6">
-        <v>12.2753697472508</v>
+        <v>46.17731499999999</v>
       </c>
       <c r="O6">
-        <v>0.1334741663649451</v>
+        <v>0.158142789529777</v>
       </c>
       <c r="P6">
-        <v>0.1334741663649451</v>
+        <v>0.1581427895297769</v>
       </c>
       <c r="Q6">
-        <v>10.57413061612049</v>
+        <v>14.82267183598666</v>
       </c>
       <c r="R6">
-        <v>10.57413061612049</v>
+        <v>133.40404652388</v>
       </c>
       <c r="S6">
-        <v>0.00181674203425902</v>
+        <v>0.002213691258631941</v>
       </c>
       <c r="T6">
-        <v>0.00181674203425902</v>
+        <v>0.002213691258631941</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.3687727339317</v>
+        <v>14.16077566666667</v>
       </c>
       <c r="H7">
-        <v>13.3687727339317</v>
+        <v>42.482327</v>
       </c>
       <c r="I7">
-        <v>0.2112406522181216</v>
+        <v>0.2058427742139996</v>
       </c>
       <c r="J7">
-        <v>0.2112406522181216</v>
+        <v>0.2058427742139996</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.78420430935101</v>
+        <v>7.078637666666666</v>
       </c>
       <c r="N7">
-        <v>6.78420430935101</v>
+        <v>21.235913</v>
       </c>
       <c r="O7">
-        <v>0.07376690342406136</v>
+        <v>0.07272632720268933</v>
       </c>
       <c r="P7">
-        <v>0.07376690342406136</v>
+        <v>0.07272632720268933</v>
       </c>
       <c r="Q7">
-        <v>90.69648559227372</v>
+        <v>100.2390000232834</v>
       </c>
       <c r="R7">
-        <v>90.69648559227372</v>
+        <v>902.1510002095509</v>
       </c>
       <c r="S7">
-        <v>0.01558256879140991</v>
+        <v>0.01497018894979664</v>
       </c>
       <c r="T7">
-        <v>0.01558256879140991</v>
+        <v>0.01497018894979664</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.3687727339317</v>
+        <v>14.16077566666667</v>
       </c>
       <c r="H8">
-        <v>13.3687727339317</v>
+        <v>42.482327</v>
       </c>
       <c r="I8">
-        <v>0.2112406522181216</v>
+        <v>0.2058427742139996</v>
       </c>
       <c r="J8">
-        <v>0.2112406522181216</v>
+        <v>0.2058427742139996</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.08139142165525</v>
+        <v>7.166899</v>
       </c>
       <c r="N8">
-        <v>7.08139142165525</v>
+        <v>21.500697</v>
       </c>
       <c r="O8">
-        <v>0.07699831745768733</v>
+        <v>0.07363312917640419</v>
       </c>
       <c r="P8">
-        <v>0.07699831745768733</v>
+        <v>0.07363312917640417</v>
       </c>
       <c r="Q8">
-        <v>94.66951255612254</v>
+        <v>101.4888489646577</v>
       </c>
       <c r="R8">
-        <v>94.66951255612254</v>
+        <v>913.3996406819189</v>
       </c>
       <c r="S8">
-        <v>0.01626517479945985</v>
+        <v>0.01515684758372884</v>
       </c>
       <c r="T8">
-        <v>0.01626517479945985</v>
+        <v>0.01515684758372883</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.3687727339317</v>
+        <v>14.16077566666667</v>
       </c>
       <c r="H9">
-        <v>13.3687727339317</v>
+        <v>42.482327</v>
       </c>
       <c r="I9">
-        <v>0.2112406522181216</v>
+        <v>0.2058427742139996</v>
       </c>
       <c r="J9">
-        <v>0.2112406522181216</v>
+        <v>0.2058427742139996</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>38.1871643049415</v>
+        <v>38.27985899999999</v>
       </c>
       <c r="N9">
-        <v>38.1871643049415</v>
+        <v>114.839577</v>
       </c>
       <c r="O9">
-        <v>0.4152217021882199</v>
+        <v>0.3932894551188091</v>
       </c>
       <c r="P9">
-        <v>0.4152217021882199</v>
+        <v>0.3932894551188091</v>
       </c>
       <c r="Q9">
-        <v>510.5155209460717</v>
+        <v>542.0724958506308</v>
       </c>
       <c r="R9">
-        <v>510.5155209460717</v>
+        <v>4878.652462655678</v>
       </c>
       <c r="S9">
-        <v>0.08771170318535823</v>
+        <v>0.08095579251076797</v>
       </c>
       <c r="T9">
-        <v>0.08771170318535823</v>
+        <v>0.08095579251076797</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.3687727339317</v>
+        <v>14.16077566666667</v>
       </c>
       <c r="H10">
-        <v>13.3687727339317</v>
+        <v>42.482327</v>
       </c>
       <c r="I10">
-        <v>0.2112406522181216</v>
+        <v>0.2058427742139996</v>
       </c>
       <c r="J10">
-        <v>0.2112406522181216</v>
+        <v>0.2058427742139996</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.6400021899016</v>
+        <v>29.41469933333333</v>
       </c>
       <c r="N10">
-        <v>27.6400021899016</v>
+        <v>88.24409800000001</v>
       </c>
       <c r="O10">
-        <v>0.3005389105650863</v>
+        <v>0.3022082989723203</v>
       </c>
       <c r="P10">
-        <v>0.3005389105650863</v>
+        <v>0.3022082989723203</v>
       </c>
       <c r="Q10">
-        <v>369.512907642169</v>
+        <v>416.5349585617829</v>
       </c>
       <c r="R10">
-        <v>369.512907642169</v>
+        <v>3748.814627056046</v>
       </c>
       <c r="S10">
-        <v>0.06348603548469256</v>
+        <v>0.06220739465095623</v>
       </c>
       <c r="T10">
-        <v>0.06348603548469256</v>
+        <v>0.06220739465095623</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.3687727339317</v>
+        <v>14.16077566666667</v>
       </c>
       <c r="H11">
-        <v>13.3687727339317</v>
+        <v>42.482327</v>
       </c>
       <c r="I11">
-        <v>0.2112406522181216</v>
+        <v>0.2058427742139996</v>
       </c>
       <c r="J11">
-        <v>0.2112406522181216</v>
+        <v>0.2058427742139996</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.2753697472508</v>
+        <v>15.39243833333333</v>
       </c>
       <c r="N11">
-        <v>12.2753697472508</v>
+        <v>46.17731499999999</v>
       </c>
       <c r="O11">
-        <v>0.1334741663649451</v>
+        <v>0.158142789529777</v>
       </c>
       <c r="P11">
-        <v>0.1334741663649451</v>
+        <v>0.1581427895297769</v>
       </c>
       <c r="Q11">
-        <v>164.1066283759766</v>
+        <v>217.9688662013338</v>
       </c>
       <c r="R11">
-        <v>164.1066283759766</v>
+        <v>1961.719795812005</v>
       </c>
       <c r="S11">
-        <v>0.02819516995720108</v>
+        <v>0.03255255051874994</v>
       </c>
       <c r="T11">
-        <v>0.02819516995720108</v>
+        <v>0.03255255051874994</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.4419813389077</v>
+        <v>17.538395</v>
       </c>
       <c r="H12">
-        <v>17.4419813389077</v>
+        <v>52.615185</v>
       </c>
       <c r="I12">
-        <v>0.2756016268161652</v>
+        <v>0.2549402636579399</v>
       </c>
       <c r="J12">
-        <v>0.2756016268161652</v>
+        <v>0.2549402636579399</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.78420430935101</v>
+        <v>7.078637666666666</v>
       </c>
       <c r="N12">
-        <v>6.78420430935101</v>
+        <v>21.235913</v>
       </c>
       <c r="O12">
-        <v>0.07376690342406136</v>
+        <v>0.07272632720268933</v>
       </c>
       <c r="P12">
-        <v>0.07376690342406136</v>
+        <v>0.07272632720268933</v>
       </c>
       <c r="Q12">
-        <v>118.3299649630375</v>
+        <v>124.1479434598783</v>
       </c>
       <c r="R12">
-        <v>118.3299649630375</v>
+        <v>1117.331491138905</v>
       </c>
       <c r="S12">
-        <v>0.02033027858886226</v>
+        <v>0.01854086903192722</v>
       </c>
       <c r="T12">
-        <v>0.02033027858886226</v>
+        <v>0.01854086903192723</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.4419813389077</v>
+        <v>17.538395</v>
       </c>
       <c r="H13">
-        <v>17.4419813389077</v>
+        <v>52.615185</v>
       </c>
       <c r="I13">
-        <v>0.2756016268161652</v>
+        <v>0.2549402636579399</v>
       </c>
       <c r="J13">
-        <v>0.2756016268161652</v>
+        <v>0.2549402636579399</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.08139142165525</v>
+        <v>7.166899</v>
       </c>
       <c r="N13">
-        <v>7.08139142165525</v>
+        <v>21.500697</v>
       </c>
       <c r="O13">
-        <v>0.07699831745768733</v>
+        <v>0.07363312917640419</v>
       </c>
       <c r="P13">
-        <v>0.07699831745768733</v>
+        <v>0.07363312917640417</v>
       </c>
       <c r="Q13">
-        <v>123.5134970300119</v>
+        <v>125.695905587105</v>
       </c>
       <c r="R13">
-        <v>123.5134970300119</v>
+        <v>1131.263150283945</v>
       </c>
       <c r="S13">
-        <v>0.02122086155344616</v>
+        <v>0.01877204936619163</v>
       </c>
       <c r="T13">
-        <v>0.02122086155344616</v>
+        <v>0.01877204936619163</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.4419813389077</v>
+        <v>17.538395</v>
       </c>
       <c r="H14">
-        <v>17.4419813389077</v>
+        <v>52.615185</v>
       </c>
       <c r="I14">
-        <v>0.2756016268161652</v>
+        <v>0.2549402636579399</v>
       </c>
       <c r="J14">
-        <v>0.2756016268161652</v>
+        <v>0.2549402636579399</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>38.1871643049415</v>
+        <v>38.27985899999999</v>
       </c>
       <c r="N14">
-        <v>38.1871643049415</v>
+        <v>114.839577</v>
       </c>
       <c r="O14">
-        <v>0.4152217021882199</v>
+        <v>0.3932894551188091</v>
       </c>
       <c r="P14">
-        <v>0.4152217021882199</v>
+        <v>0.3932894551188091</v>
       </c>
       <c r="Q14">
-        <v>666.0598071925917</v>
+        <v>671.3672876863048</v>
       </c>
       <c r="R14">
-        <v>666.0598071925917</v>
+        <v>6042.305589176744</v>
       </c>
       <c r="S14">
-        <v>0.1144357766124507</v>
+        <v>0.1002653173818767</v>
       </c>
       <c r="T14">
-        <v>0.1144357766124507</v>
+        <v>0.1002653173818767</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.4419813389077</v>
+        <v>17.538395</v>
       </c>
       <c r="H15">
-        <v>17.4419813389077</v>
+        <v>52.615185</v>
       </c>
       <c r="I15">
-        <v>0.2756016268161652</v>
+        <v>0.2549402636579399</v>
       </c>
       <c r="J15">
-        <v>0.2756016268161652</v>
+        <v>0.2549402636579399</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.6400021899016</v>
+        <v>29.41469933333333</v>
       </c>
       <c r="N15">
-        <v>27.6400021899016</v>
+        <v>88.24409800000001</v>
       </c>
       <c r="O15">
-        <v>0.3005389105650863</v>
+        <v>0.3022082989723203</v>
       </c>
       <c r="P15">
-        <v>0.3005389105650863</v>
+        <v>0.3022082989723203</v>
       </c>
       <c r="Q15">
-        <v>482.0964024036317</v>
+        <v>515.8866157142367</v>
       </c>
       <c r="R15">
-        <v>482.0964024036317</v>
+        <v>4642.97954142813</v>
       </c>
       <c r="S15">
-        <v>0.08282901267329576</v>
+        <v>0.07704506341962086</v>
       </c>
       <c r="T15">
-        <v>0.08282901267329576</v>
+        <v>0.07704506341962088</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.4419813389077</v>
+        <v>17.538395</v>
       </c>
       <c r="H16">
-        <v>17.4419813389077</v>
+        <v>52.615185</v>
       </c>
       <c r="I16">
-        <v>0.2756016268161652</v>
+        <v>0.2549402636579399</v>
       </c>
       <c r="J16">
-        <v>0.2756016268161652</v>
+        <v>0.2549402636579399</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.2753697472508</v>
+        <v>15.39243833333333</v>
       </c>
       <c r="N16">
-        <v>12.2753697472508</v>
+        <v>46.17731499999999</v>
       </c>
       <c r="O16">
-        <v>0.1334741663649451</v>
+        <v>0.158142789529777</v>
       </c>
       <c r="P16">
-        <v>0.1334741663649451</v>
+        <v>0.1581427895297769</v>
       </c>
       <c r="Q16">
-        <v>214.1067700597406</v>
+        <v>269.9586635031416</v>
       </c>
       <c r="R16">
-        <v>214.1067700597406</v>
+        <v>2429.627971528274</v>
       </c>
       <c r="S16">
-        <v>0.03678569738811036</v>
+        <v>0.04031696445832343</v>
       </c>
       <c r="T16">
-        <v>0.03678569738811036</v>
+        <v>0.04031696445832343</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>31.3166859237994</v>
+        <v>35.78718966666667</v>
       </c>
       <c r="H17">
-        <v>31.3166859237994</v>
+        <v>107.361569</v>
       </c>
       <c r="I17">
-        <v>0.4948365337277976</v>
+        <v>0.5202069841166597</v>
       </c>
       <c r="J17">
-        <v>0.4948365337277976</v>
+        <v>0.5202069841166597</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.78420430935101</v>
+        <v>7.078637666666666</v>
       </c>
       <c r="N17">
-        <v>6.78420430935101</v>
+        <v>21.235913</v>
       </c>
       <c r="O17">
-        <v>0.07376690342406136</v>
+        <v>0.07272632720268933</v>
       </c>
       <c r="P17">
-        <v>0.07376690342406136</v>
+        <v>0.07272632720268933</v>
       </c>
       <c r="Q17">
-        <v>212.458795598832</v>
+        <v>253.3245487586108</v>
       </c>
       <c r="R17">
-        <v>212.458795598832</v>
+        <v>2279.920938827497</v>
       </c>
       <c r="S17">
-        <v>0.03650255879419573</v>
+        <v>0.0378327433399924</v>
       </c>
       <c r="T17">
-        <v>0.03650255879419573</v>
+        <v>0.0378327433399924</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>31.3166859237994</v>
+        <v>35.78718966666667</v>
       </c>
       <c r="H18">
-        <v>31.3166859237994</v>
+        <v>107.361569</v>
       </c>
       <c r="I18">
-        <v>0.4948365337277976</v>
+        <v>0.5202069841166597</v>
       </c>
       <c r="J18">
-        <v>0.4948365337277976</v>
+        <v>0.5202069841166597</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.08139142165525</v>
+        <v>7.166899</v>
       </c>
       <c r="N18">
-        <v>7.08139142165525</v>
+        <v>21.500697</v>
       </c>
       <c r="O18">
-        <v>0.07699831745768733</v>
+        <v>0.07363312917640419</v>
       </c>
       <c r="P18">
-        <v>0.07699831745768733</v>
+        <v>0.07363312917640417</v>
       </c>
       <c r="Q18">
-        <v>221.7657110554648</v>
+        <v>256.4831738348437</v>
       </c>
       <c r="R18">
-        <v>221.7657110554648</v>
+        <v>2308.348564513593</v>
       </c>
       <c r="S18">
-        <v>0.03810158051363456</v>
+        <v>0.03830446805992965</v>
       </c>
       <c r="T18">
-        <v>0.03810158051363456</v>
+        <v>0.03830446805992964</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>31.3166859237994</v>
+        <v>35.78718966666667</v>
       </c>
       <c r="H19">
-        <v>31.3166859237994</v>
+        <v>107.361569</v>
       </c>
       <c r="I19">
-        <v>0.4948365337277976</v>
+        <v>0.5202069841166597</v>
       </c>
       <c r="J19">
-        <v>0.4948365337277976</v>
+        <v>0.5202069841166597</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>38.1871643049415</v>
+        <v>38.27985899999999</v>
       </c>
       <c r="N19">
-        <v>38.1871643049415</v>
+        <v>114.839577</v>
       </c>
       <c r="O19">
-        <v>0.4152217021882199</v>
+        <v>0.3932894551188091</v>
       </c>
       <c r="P19">
-        <v>0.4152217021882199</v>
+        <v>0.3932894551188091</v>
       </c>
       <c r="Q19">
-        <v>1195.895430858376</v>
+        <v>1369.928574446257</v>
       </c>
       <c r="R19">
-        <v>1195.895430858376</v>
+        <v>12329.35717001631</v>
       </c>
       <c r="S19">
-        <v>0.2054668678393746</v>
+        <v>0.2045919213322401</v>
       </c>
       <c r="T19">
-        <v>0.2054668678393746</v>
+        <v>0.2045919213322401</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>31.3166859237994</v>
+        <v>35.78718966666667</v>
       </c>
       <c r="H20">
-        <v>31.3166859237994</v>
+        <v>107.361569</v>
       </c>
       <c r="I20">
-        <v>0.4948365337277976</v>
+        <v>0.5202069841166597</v>
       </c>
       <c r="J20">
-        <v>0.4948365337277976</v>
+        <v>0.5202069841166597</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>27.6400021899016</v>
+        <v>29.41469933333333</v>
       </c>
       <c r="N20">
-        <v>27.6400021899016</v>
+        <v>88.24409800000001</v>
       </c>
       <c r="O20">
-        <v>0.3005389105650863</v>
+        <v>0.3022082989723203</v>
       </c>
       <c r="P20">
-        <v>0.3005389105650863</v>
+        <v>0.3022082989723203</v>
       </c>
       <c r="Q20">
-        <v>865.5932675142761</v>
+        <v>1052.669424029974</v>
       </c>
       <c r="R20">
-        <v>865.5932675142761</v>
+        <v>9474.024816269763</v>
       </c>
       <c r="S20">
-        <v>0.1487176327543559</v>
+        <v>0.1572108677834166</v>
       </c>
       <c r="T20">
-        <v>0.1487176327543559</v>
+        <v>0.1572108677834166</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>31.3166859237994</v>
+        <v>35.78718966666667</v>
       </c>
       <c r="H21">
-        <v>31.3166859237994</v>
+        <v>107.361569</v>
       </c>
       <c r="I21">
-        <v>0.4948365337277976</v>
+        <v>0.5202069841166597</v>
       </c>
       <c r="J21">
-        <v>0.4948365337277976</v>
+        <v>0.5202069841166597</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>12.2753697472508</v>
+        <v>15.39243833333333</v>
       </c>
       <c r="N21">
-        <v>12.2753697472508</v>
+        <v>46.17731499999999</v>
       </c>
       <c r="O21">
-        <v>0.1334741663649451</v>
+        <v>0.158142789529777</v>
       </c>
       <c r="P21">
-        <v>0.1334741663649451</v>
+        <v>0.1581427895297769</v>
       </c>
       <c r="Q21">
-        <v>384.4238989731621</v>
+        <v>550.8521100674706</v>
       </c>
       <c r="R21">
-        <v>384.4238989731621</v>
+        <v>4957.668990607234</v>
       </c>
       <c r="S21">
-        <v>0.06604789382623684</v>
+        <v>0.08226698360108094</v>
       </c>
       <c r="T21">
-        <v>0.06604789382623684</v>
+        <v>0.08226698360108091</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.298081370442775</v>
+        <v>0.344791</v>
       </c>
       <c r="H22">
-        <v>0.298081370442775</v>
+        <v>1.034373</v>
       </c>
       <c r="I22">
-        <v>0.004709998767993493</v>
+        <v>0.005011924320719471</v>
       </c>
       <c r="J22">
-        <v>0.004709998767993493</v>
+        <v>0.005011924320719471</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.78420430935101</v>
+        <v>7.078637666666666</v>
       </c>
       <c r="N22">
-        <v>6.78420430935101</v>
+        <v>21.235913</v>
       </c>
       <c r="O22">
-        <v>0.07376690342406136</v>
+        <v>0.07272632720268933</v>
       </c>
       <c r="P22">
-        <v>0.07376690342406136</v>
+        <v>0.07272632720268933</v>
       </c>
       <c r="Q22">
-        <v>2.022244917895129</v>
+        <v>2.440650559727667</v>
       </c>
       <c r="R22">
-        <v>2.022244917895129</v>
+        <v>21.965855037549</v>
       </c>
       <c r="S22">
-        <v>0.000347442024246024</v>
+        <v>0.0003644988480637607</v>
       </c>
       <c r="T22">
-        <v>0.000347442024246024</v>
+        <v>0.0003644988480637607</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.298081370442775</v>
+        <v>0.344791</v>
       </c>
       <c r="H23">
-        <v>0.298081370442775</v>
+        <v>1.034373</v>
       </c>
       <c r="I23">
-        <v>0.004709998767993493</v>
+        <v>0.005011924320719471</v>
       </c>
       <c r="J23">
-        <v>0.004709998767993493</v>
+        <v>0.005011924320719471</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.08139142165525</v>
+        <v>7.166899</v>
       </c>
       <c r="N23">
-        <v>7.08139142165525</v>
+        <v>21.500697</v>
       </c>
       <c r="O23">
-        <v>0.07699831745768733</v>
+        <v>0.07363312917640419</v>
       </c>
       <c r="P23">
-        <v>0.07699831745768733</v>
+        <v>0.07363312917640417</v>
       </c>
       <c r="Q23">
-        <v>2.110830859608708</v>
+        <v>2.471082273109</v>
       </c>
       <c r="R23">
-        <v>2.110830859608708</v>
+        <v>22.239740457981</v>
       </c>
       <c r="S23">
-        <v>0.0003626619803632792</v>
+        <v>0.0003690436709298986</v>
       </c>
       <c r="T23">
-        <v>0.0003626619803632792</v>
+        <v>0.0003690436709298985</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.298081370442775</v>
+        <v>0.344791</v>
       </c>
       <c r="H24">
-        <v>0.298081370442775</v>
+        <v>1.034373</v>
       </c>
       <c r="I24">
-        <v>0.004709998767993493</v>
+        <v>0.005011924320719471</v>
       </c>
       <c r="J24">
-        <v>0.004709998767993493</v>
+        <v>0.005011924320719471</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>38.1871643049415</v>
+        <v>38.27985899999999</v>
       </c>
       <c r="N24">
-        <v>38.1871643049415</v>
+        <v>114.839577</v>
       </c>
       <c r="O24">
-        <v>0.4152217021882199</v>
+        <v>0.3932894551188091</v>
       </c>
       <c r="P24">
-        <v>0.4152217021882199</v>
+        <v>0.3932894551188091</v>
       </c>
       <c r="Q24">
-        <v>11.38288226934038</v>
+        <v>13.198550864469</v>
       </c>
       <c r="R24">
-        <v>11.38288226934038</v>
+        <v>118.786957780221</v>
       </c>
       <c r="S24">
-        <v>0.001955693705750677</v>
+        <v>0.001971136985192468</v>
       </c>
       <c r="T24">
-        <v>0.001955693705750677</v>
+        <v>0.001971136985192468</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.298081370442775</v>
+        <v>0.344791</v>
       </c>
       <c r="H25">
-        <v>0.298081370442775</v>
+        <v>1.034373</v>
       </c>
       <c r="I25">
-        <v>0.004709998767993493</v>
+        <v>0.005011924320719471</v>
       </c>
       <c r="J25">
-        <v>0.004709998767993493</v>
+        <v>0.005011924320719471</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>27.6400021899016</v>
+        <v>29.41469933333333</v>
       </c>
       <c r="N25">
-        <v>27.6400021899016</v>
+        <v>88.24409800000001</v>
       </c>
       <c r="O25">
-        <v>0.3005389105650863</v>
+        <v>0.3022082989723203</v>
       </c>
       <c r="P25">
-        <v>0.3005389105650863</v>
+        <v>0.3022082989723203</v>
       </c>
       <c r="Q25">
-        <v>8.23896973180717</v>
+        <v>10.14192359783933</v>
       </c>
       <c r="R25">
-        <v>8.23896973180717</v>
+        <v>91.27731238055401</v>
       </c>
       <c r="S25">
-        <v>0.001415537898495663</v>
+        <v>0.001514645123542633</v>
       </c>
       <c r="T25">
-        <v>0.001415537898495663</v>
+        <v>0.001514645123542633</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.298081370442775</v>
+        <v>0.344791</v>
       </c>
       <c r="H26">
-        <v>0.298081370442775</v>
+        <v>1.034373</v>
       </c>
       <c r="I26">
-        <v>0.004709998767993493</v>
+        <v>0.005011924320719471</v>
       </c>
       <c r="J26">
-        <v>0.004709998767993493</v>
+        <v>0.005011924320719471</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>12.2753697472508</v>
+        <v>15.39243833333333</v>
       </c>
       <c r="N26">
-        <v>12.2753697472508</v>
+        <v>46.17731499999999</v>
       </c>
       <c r="O26">
-        <v>0.1334741663649451</v>
+        <v>0.158142789529777</v>
       </c>
       <c r="P26">
-        <v>0.1334741663649451</v>
+        <v>0.1581427895297769</v>
       </c>
       <c r="Q26">
-        <v>3.659059036952299</v>
+        <v>5.307174205388333</v>
       </c>
       <c r="R26">
-        <v>3.659059036952299</v>
+        <v>47.76456784849499</v>
       </c>
       <c r="S26">
-        <v>0.0006286631591378501</v>
+        <v>0.0007925996929907096</v>
       </c>
       <c r="T26">
-        <v>0.0006286631591378501</v>
+        <v>0.0007925996929907095</v>
       </c>
     </row>
   </sheetData>
